--- a/ifood 3.xlsx
+++ b/ifood 3.xlsx
@@ -14,254 +14,1113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
-  <si>
-    <t>Dados</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
+  <si>
+    <t>Dados Coletados</t>
+  </si>
+  <si>
+    <t>Valor Atribuido</t>
+  </si>
+  <si>
+    <t>@ifood te amo tanto que nem sei https://t.co/ygebu28guv</t>
+  </si>
+  <si>
+    <t>@naodigaalo @uselolja @ifood alada ?</t>
+  </si>
+  <si>
+    <t>@ifood eu tb</t>
+  </si>
+  <si>
+    <t>@hopperta_ @ifood @ingrydcarolly sem pensar duas vezes</t>
   </si>
   <si>
     <t>cupom de desconto: 
-ifood:
+ifood
 w75zj7cyem - 10 reais no seu primeiro pedido 
-rappi:
-gkz310126052 - 30 reais + 100 em frete
-james delivery
-gleizyt1276 - 20 reais no seu primeiro pedido
+rappi
+gkz310126052 -  30 reais + 150 em frete.
+picpay
+cjytau -  ganhe credito para fazer pagamentos, recargas e muito mais!
 airbnb:
-https://t.co/8vweyqfdmr -&amp;gt; até 179 reais de desconto em hospedagem! https://t.co/fcivdo1d39</t>
-  </si>
-  <si>
-    <t>aqui um cupom de desconto do ifood de 15 conto p primeira compra 
-8qrgbk2tn6</t>
-  </si>
-  <si>
-    <t>rt @vitoriarizzom: pra que serve a porcaria do cupom do ifood se nenhum restaurante aceita eu ein</t>
-  </si>
-  <si>
-    <t>rt @tautedm: e quem ainda não baixou o ifood, baixe!!
-vários restaurantes de sm estão usando, dentre eles: churrasquito e tribano 😋
-toma a…</t>
-  </si>
-  <si>
-    <t>@angelobelchior @oberdanferreira @magoolation @manobrownof @lucianohuck @ifood quero ver um lista de defeitos, pessoas assumindo q rocam, q tem frieira, q deixam a toalha molhada na cama... 
-vamos mostrar que somos humanos e que temos defeitos, quem sabe assumindo isso, as pessoas parem de pensar que a grama dos outros é mais verde. que tal?</t>
-  </si>
-  <si>
-    <t>rt @emitereza: existe mesmo amizade que um pede ifood p outro ou é só meme??????        queria</t>
-  </si>
-  <si>
-    <t>rt @vihvarantes: ai pessoal a partir de hoje estaremos no ifood!!!! da uma forcinha p nóixxxxx! https://t.co/o9zts4l5mk</t>
-  </si>
-  <si>
-    <t>ai pedi pra ela pedir um ifood pra mim que eu to com muita cólica e não quero cozinhar</t>
-  </si>
-  <si>
-    <t>ifood tóxico do caralho não aceitou meu cupom de 15 pq não é minha primeira compra
-agora to aqui na ânsia por um carbonara do spoleto</t>
-  </si>
-  <si>
-    <t>acordei na hora que o cupom do ifood acabou que raivah</t>
+https://t.co/uku9xktkgn -&amp;gt;  até 179 reais de desconto em hospedagem</t>
+  </si>
+  <si>
+    <t>@ifood me ajuda ai pfv, meu pedido nao chegou vcs começaram a me ajudar na dm e sumiram =x</t>
+  </si>
+  <si>
+    <t>@ifood minha primeira compra foi em 1900 e bolinha</t>
+  </si>
+  <si>
+    <t>rt @opedroangelo: kindle salvou mais árvores, poupando papel, do que quem protesta pelo meio ambiente com cartolina na mão
+uber ou ifood a…</t>
+  </si>
+  <si>
+    <t>kkkkkkkk twitter do ifood melhor pessoa t amo pakas @ifood</t>
   </si>
   <si>
     <t>cupom de desconto: 
 ifood:
 w75zj7cyem - 10 reais no seu primeiro pedido 
 rappi
-gkz310126052 - 30 reais + 100 em frete!
+gkz310126052 - 30 reais + 150 em frete  
 james delivery
 gleizyt1276 - 20 reais no seu primeiro pedido
+airbnb
+https://t.co/qe2cgghrfr -&amp;gt; até 179 reais de desconto em hospedagem https://t.co/gfieiprkdf</t>
+  </si>
+  <si>
+    <t>@ifood hmmm, depois que eu já almocei 🤬</t>
+  </si>
+  <si>
+    <t>só queria dizer que to chateada com o @ifood que já faz 84 anos que não me manda um cupomzinho!</t>
+  </si>
+  <si>
+    <t>ifood vi tua palestra quinta feira no enej eu sei seus movimentos https://t.co/1qar9uw0eh</t>
+  </si>
+  <si>
+    <t>ifood marolo com minha mãe cara hoje 😡😡😡😡 me deixo de cara quente</t>
+  </si>
+  <si>
+    <t>@ifood tuíte adequado para uma geração que considera consumir pratos com fezes.</t>
+  </si>
+  <si>
+    <t>@ifood tá foda neah</t>
+  </si>
+  <si>
+    <t>@ifood válido apenas para primeira compra. "valeu" aí ifood tóxico do c@r*lho.</t>
+  </si>
+  <si>
+    <t>@ifood ifood meu lindo, vcs deveriam excluir da plataforma restaurantes com nota abaixo de 3.</t>
+  </si>
+  <si>
+    <t>@lcbaal @ubereats @ifood muitooo, sofro</t>
+  </si>
+  <si>
+    <t>@temwhatslinda não aguento mais esse adm do ifood pelo amor de deus !!!</t>
+  </si>
+  <si>
+    <t>@ifood vocês tão de sacanagem que não vão responder a minha reclamação?</t>
+  </si>
+  <si>
+    <t>@ifood #trocogentetoxicapor uma resposta decente do ifood</t>
+  </si>
+  <si>
+    <t>@ifood eu pedi um cupom sábado, vcs cagaram pra mim. hoje fala em cupom, mas cagou pra tudo mundo e não mandou. 😠</t>
+  </si>
+  <si>
+    <t>@ifood @cnt_pr o q tá acontecendo com vcs</t>
+  </si>
+  <si>
+    <t>@ifood aí fode né</t>
+  </si>
+  <si>
+    <t>@ifood pena que você não me dá mais</t>
+  </si>
+  <si>
+    <t>gente o tt do ifood é o melhor https://t.co/g3wq3gmoip</t>
+  </si>
+  <si>
+    <t>@ifood que coisa nojenta</t>
+  </si>
+  <si>
+    <t>@fcpn51 @ifood este come melhor... ele dá cu 
+pom?</t>
+  </si>
+  <si>
+    <t>@mdnvsky @ifood eu vivo pela publicidade do ifood, kmed e giraffas, sério</t>
+  </si>
+  <si>
+    <t>@ifood então manda um</t>
+  </si>
+  <si>
+    <t>@ifood vocês têm o pensamento muito poluído... credo, se ele quer o cu dele, problema é dele... ele vive fazendo isso mesmo.</t>
+  </si>
+  <si>
+    <t>@ifood oii...
+depois de muito tempo (...) fui respondido no chat do app e orientado sobre o estorno, tá tudo certo agora.
+obrigado! :)</t>
+  </si>
+  <si>
+    <t>@thiagobozo @ifood @rappibrasil alo trigo de ouro, libera um pudim</t>
+  </si>
+  <si>
+    <t>pedi um sorvete pelo ifood rs</t>
+  </si>
+  <si>
+    <t>meu sonho ifood ter um sistema de vip pra quem pede mt que nem o uber</t>
+  </si>
+  <si>
+    <t>@ifood cupom apenas na próxima encarnação quando ganharei um novo cpf</t>
+  </si>
+  <si>
+    <t>@ifood cara, quanto mais eu peço no james, mas cupons eles me dão. eu te troquei pelo james e nem peço desculpa.</t>
+  </si>
+  <si>
+    <t>@ifood quero comer mexicano hoje, será que o ifood vai liberar hoje o cu</t>
+  </si>
+  <si>
+    <t>@ifood muita sacanagem postar isso iludindo quem já é cliente, chega no app e quando vai aplicar não pode. avisa, pelo menos, né meu anjo.
+#ifoodtoxica</t>
+  </si>
+  <si>
+    <t>@ifood ifood foto do peru na minha dm, por favor!</t>
+  </si>
+  <si>
+    <t>@wpdarosa @ubereats @ifood kkkkkkkkkkk brinks migo amo essa cidade, ainda mais as pessoas dela rsrsrs</t>
+  </si>
+  <si>
+    <t>rt @heronfz: eu: preciso economizar.
+também eu: nossa eu ganhei um cupom de 8 reais no ifood! se eu pedir 400 reais de comida eu vou estar…</t>
+  </si>
+  <si>
+    <t>@ifood eu nunca ganhei cupom nesse aplicativo.</t>
+  </si>
+  <si>
+    <t>@ifood pois muito que bem, não está funcionando!</t>
+  </si>
+  <si>
+    <t>@ifood adoro</t>
+  </si>
+  <si>
+    <t>@ifood hoje eu engordoooo</t>
+  </si>
+  <si>
+    <t>@ifood eu tbm troco por cu 
+.
+.
+.
+.
+.
+.
+por um cuntrato de carteira assinada</t>
+  </si>
+  <si>
+    <t>@ifood ao invés de fazer gracinha, vocês deveriam prestar mais atenção nas pessoas credenciam ou que colocam para entregar os pedidos. motoboy que vende pedido de consumidor é a mais!</t>
+  </si>
+  <si>
+    <t>@ifood expandindo seus negócios para outros ramos da indústria alimentícia https://t.co/mdi1kss1nx</t>
+  </si>
+  <si>
+    <t>o entregador do ifood realmente roubou a minha comida cara, que sacanagem</t>
+  </si>
+  <si>
+    <t>@ifood aí me manda umas entregas tô cansado de fica parado já</t>
+  </si>
+  <si>
+    <t>gente a ana eh a estagiária do ifood tudo faz sentido https://t.co/b4kdn9icwi</t>
+  </si>
+  <si>
+    <t>nunca senti tanto ódio em toda a minha vida a porra do ifood fez uma cobrança maior do que era de novo eu to surtando de ódio</t>
+  </si>
+  <si>
+    <t>alguém segure o ifood https://t.co/fpynkcx36l</t>
+  </si>
+  <si>
+    <t>@ifood e cadê o cupom pra quem já comprou ?</t>
+  </si>
+  <si>
+    <t>@ifood que idéia jenial colocar órgão excretor em conversa de app de comida</t>
+  </si>
+  <si>
+    <t>pensando na prova que ainda não chegou, enquanto vejo comida no ifood</t>
+  </si>
+  <si>
+    <t>@ifood tudo bom linda?</t>
+  </si>
+  <si>
+    <t>@ifood a concorrência agradece</t>
+  </si>
+  <si>
+    <t>@ifood não estou conseguindo, afirma que essa promoção não está disponível</t>
+  </si>
+  <si>
+    <t>rt @gabvasa: ninguém:
+estagiário do ifood: https://t.co/ls3btbgccu https://t.co/4eue72rq8h</t>
+  </si>
+  <si>
+    <t>só queria ser rica pra pedir todo dia alguma coisa no ifood</t>
+  </si>
+  <si>
+    <t>o @ifood tá completamente louco na tl</t>
+  </si>
+  <si>
+    <t>@ifood vou baixar agora, só por conta disso rss</t>
+  </si>
+  <si>
+    <t>eu não aguento com o estagiário do ifood kkkkkkkkkkkkkk https://t.co/oqhf3kkaue</t>
+  </si>
+  <si>
+    <t>@ifood nao primeira compra eu desadorei. poxa queria comprar mas so tem desconto primeira compra</t>
+  </si>
+  <si>
+    <t>@ifood me dá um, nunca te pedi nada</t>
+  </si>
+  <si>
+    <t>@ifood @boskovix18 melhor patrocinador, dando aula de marketing e ganhando fama pelo carisma. meu oz agradece 😍 https://t.co/pihdtxn0pb</t>
+  </si>
+  <si>
+    <t>bateu aquela fome? thaynnara e nós do #ifood vamos te ajudar! insira o cupom reezytqelh e ganhe r$ 15 de desconto na sua primeira compra pelo app.
+https://t.co/klb6hn1kyz</t>
+  </si>
+  <si>
+    <t>@ifood  melhor perfil de todos, melhores tweets, melhores pessoas 🤣🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>@ifood queria outra coisa, mas serve também.</t>
+  </si>
+  <si>
+    <t>apple tv+ chega em 1/11 de graça pra quem comprar algo da apple! concorrência fraca pro amazon prime video? ah, tem novo ipad e watch!
+e tomem cupom:
+-ifood r$15:
+ltskr2vq1f ou vkx9l8dzbw
+-shellbox r$10: fp58141
+#appleevent #appletvplus #streaming #apple #applewatchseries5 https://t.co/uijv1fmwgr</t>
+  </si>
+  <si>
+    <t>@ifood quem q ainda não fez a primeira compra? nada a ver esse tipo de cupom</t>
+  </si>
+  <si>
+    <t>@ifood pra que tu quer outro se tu ja tem o teu?</t>
+  </si>
+  <si>
+    <t>@wpdarosa @ubereats @ifood vou verrr</t>
+  </si>
+  <si>
+    <t>@ifood mita mitosa hahaha não compartilhamos do mesmo objeto de desejo mas respeito. pra mim pode ser um cupom mesmo!!!</t>
+  </si>
+  <si>
+    <t>a felicidade da pessoa que pediu 14 esfihas no ifood e vai pagar só 9 reais</t>
+  </si>
+  <si>
+    <t>@ifood @bzitoo eu sei que é vc kkkkkkkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@hmdoidx @ifood forçaçam de barra do krl</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem - 10 reais no seu primeiro pedido 
+rappi
+gkz310126052 - 30 reais + 150 em frete.
+picpay
+cjytau -  ganhe credito para fazer pagamentos, recargas e muito mais!
 airbnb:
-https://t.co/jmrttpbjr1 -&amp;gt; até 179 reais de desconto em hospedagem https://t.co/bni8yrid4n</t>
-  </si>
-  <si>
-    <t>eu pedi uma comida do ifood que na moral tá uma humilhação de gostosa</t>
-  </si>
-  <si>
-    <t>ou eu posso pedir no ifood</t>
-  </si>
-  <si>
-    <t>já não bastava o @ifood agora você também @mcdonalds_br ? https://t.co/n3gyd2hrsc</t>
-  </si>
-  <si>
-    <t>@pocatrasada toda vez que eu peço ifood eu crio uma conta haha</t>
-  </si>
-  <si>
-    <t>e meu pedido do ifood q tá 1 hora atrasado</t>
-  </si>
-  <si>
-    <t>rt @cometoloren: ifood tóxico do caralho não aceitou meu cupom de 15 pq não é minha primeira compra
-agora to aqui na ânsia por um carbonar…</t>
-  </si>
-  <si>
-    <t>o que acaba com o dinheiro do jovem é ifood e delivery, sem +</t>
-  </si>
-  <si>
-    <t>@yareds_ eu tô tentando pedi pelo ifood</t>
-  </si>
-  <si>
-    <t>tentanfo descobir de onde veio esses 20 reais de lanche no ifood q apareceu do nada no meu cartao....</t>
-  </si>
-  <si>
-    <t>fiz um pedido no ifood e esqueci de colocar meu número 🤦🏻‍♀️🤦🏻‍♀️</t>
-  </si>
-  <si>
-    <t>tava pensando em pedir algo no ifood mas vou ter que descer pra pegar então já desisti, o auge</t>
-  </si>
-  <si>
-    <t>mano, pedi um harumaki de camarão  e 10 rolls de hot filadelfia no ifood, chagou 40 rolls skin e hot filadelfia aqui em casa kkkkk alguém pra comer cmg ?</t>
-  </si>
-  <si>
-    <t>odiei essa nova forma de cupom do @ifood não são todos os restaurantes que aceitam pagamento na entrega, e pedidos acima de $25 reais? amado???
-só estou usando o @aiqfome agora, cupom quase todo dia, aceita com pagamento em dinheiro e sem exceções de restaurante</t>
-  </si>
-  <si>
-    <t>@xetdoifood @ifood tá na hora de colocar opção de foto no app</t>
-  </si>
-  <si>
-    <t>@redator @ifood eu já mandei dogão via uber eats :p</t>
-  </si>
-  <si>
-    <t>quase pedi no ifood mas coloquei a mão na consciência e não finalizei 🤣🤣🤣 https://t.co/0ky6no4de5</t>
-  </si>
-  <si>
-    <t>só quero um cupom do ifood que de pra eu comprar o meu doce porque todos estão dando indisponíveis.</t>
+https://t.co/uku9xktkgn -&amp;gt;  até 179 reais de desconto em hospedagem</t>
+  </si>
+  <si>
+    <t>@ifood que fofo @ifood 
+menos um na minha lista. quem vem comigo?</t>
+  </si>
+  <si>
+    <t>@ifood meu pai????</t>
+  </si>
+  <si>
+    <t>@ifood cu-mer a sua irmã</t>
+  </si>
+  <si>
+    <t>@ifood pegaram um lacrador retardado pra cuidar da conta🤦‍♂️</t>
+  </si>
+  <si>
+    <t>@ifood oi ifood aceita meu cu
+rrículo mo quero trabalhar aí 😭</t>
+  </si>
+  <si>
+    <t>@ifood mano,não passe noites sem dormir</t>
+  </si>
+  <si>
+    <t>@ifood ei tem como você me falar com é a pizza mais cara do ifood?</t>
+  </si>
+  <si>
+    <t>@rutinhanaiara não esqueça do ifood 🤭...</t>
+  </si>
+  <si>
+    <t>@vinniboy_ @ifood ta tendo uns problemas com meu cartão, os cupons agora são horríveis e tá tudo caro</t>
+  </si>
+  <si>
+    <t>@ifood que zé buceta</t>
+  </si>
+  <si>
+    <t>@ifood ifood é ativa igual os motoboys q entregam, amo</t>
+  </si>
+  <si>
+    <t>@ifood @edgarvieiraa por isso o @ubereats_br é melhor.</t>
   </si>
   <si>
     <t>cupom de desconto: 
-ifood:
+ifood
 w75zj7cyem - 10 reais no seu primeiro pedido 
-rappi:
-gkz310126052 - 30 reais + 100 em frete
-james delivery
-gleizyt1276 - 20 reais no seu primeiro pedido
-airbnb:
-https://t.co/jmrttpbjr1 -&amp;gt; até 179 reais de desconto em hospedagem! https://t.co/9u7hc1oxig</t>
-  </si>
-  <si>
-    <t>felipe quem que que você seja saiba que seu pedido no ifood caiu no meu endereço!!!!!!! p.s.: o entregador está puto com você</t>
-  </si>
-  <si>
-    <t>comprei 1l de açaí por 5 reais, obrigado ifood</t>
-  </si>
-  <si>
-    <t>rt @queriacozinhar: monte seu burger no ifood que entregamos pra vc.
-se quiser comer no balcão - quem é o idiota pra sair num tempo desse…</t>
-  </si>
-  <si>
-    <t>cupom de desconto ifood primeira compra: ganhe r$15 off ao fazer o seu primeiro pedido no ifood. https://t.co/jx66prsi4p</t>
+rappi
+gkz310126052 -  30 reais + 150 em frete  
+picpay
+cjytau -  ganhe credito para fazer pagamentos, recargas e muito mais. 
+airbnb
+https://t.co/opgwjmcr9l  -&amp;gt;  até 179 reais de desconto em hospedagem https://t.co/9rcgfm1dv3</t>
+  </si>
+  <si>
+    <t>@_pnanda_ @ifood é a vida amigo</t>
+  </si>
+  <si>
+    <t>relações à distância e o ifood https://t.co/ocihrfnnog</t>
+  </si>
+  <si>
+    <t>@lcbaal @ubereats @ifood amada chapecó até onde sei n tem ubereats, vai de ifood q é sucesso</t>
+  </si>
+  <si>
+    <t>eai @ifood vai me devolver qnd meus 11 reais</t>
+  </si>
+  <si>
+    <t>@goesmatheu simmmm kkk vou pedir para enviar pelo ifood e deu kkk</t>
+  </si>
+  <si>
+    <t>@ifood também troco motoboys tóxicos, que vendem o pedido pago dos outros, para o porteiro do prédio.</t>
+  </si>
+  <si>
+    <t>@bzitoo @ifood eu achei tudo de bom. nada como um cu em tempos difíceis . 
+*pom</t>
+  </si>
+  <si>
+    <t>rt @ferrao: o público jovem porto alegrense resumido no ifood https://t.co/x8151xzgxv</t>
+  </si>
+  <si>
+    <t>@ifood @cross_gp ah nem hauahaua</t>
+  </si>
+  <si>
+    <t>@ifood estagiário achando que é o joaozinho das piadas de marketing</t>
+  </si>
+  <si>
+    <t>@ifood gente??????</t>
+  </si>
+  <si>
+    <t>meu deus o estagiário do ifood https://t.co/vsqcrjdupv</t>
+  </si>
+  <si>
+    <t>@ifood quando o teor é lacivo e escatológico, já sei do que se trata.</t>
+  </si>
+  <si>
+    <t>como é ifood https://t.co/yhhdakeuob</t>
+  </si>
+  <si>
+    <t>ifood tóxico não me dá mais cupom bom https://t.co/c4lbenpeyp</t>
+  </si>
+  <si>
+    <t>nunca mais @ifood ! nunca mais!</t>
+  </si>
+  <si>
+    <t>@ifood o cérebro vc ja trocou...</t>
+  </si>
+  <si>
+    <t>@ifood só queria um cu ponzinho desses, mas a linda aqui só me ignora</t>
+  </si>
+  <si>
+    <t>@ifood o jovem tem que acabar.</t>
+  </si>
+  <si>
+    <t>rt @letras: @ifood amiga vc não tem limites mesmo</t>
+  </si>
+  <si>
+    <t>@rennerstage @ifood come o cu deles
+pronto</t>
+  </si>
+  <si>
+    <t>@ifood mulo</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem - 10 reais no seu primeiro pedido 
+rappi
+gkz310126052 -  30 reais + 150 em frete  
+picpay
+cjytau -  ganhe credito para fazer pagamentos, recargas e muito mais. 
+airbnb
+https://t.co/qe2cgghrfr  -&amp;gt;  até 179 reais de desconto em hospedagem https://t.co/0mzkxyzx07</t>
+  </si>
+  <si>
+    <t>@ifood ja perdeu a graça</t>
+  </si>
+  <si>
+    <t>@ifood pelo amor de deus, já são quase 15 da tarde, era pra ter chego 13h15 meu pedido,  o restaurante diz que q culpa é de vocês pq vocês não mandaram o motoboy</t>
+  </si>
+  <si>
+    <t>@ifood lança um cupom de 30 ainda vai safada</t>
+  </si>
+  <si>
+    <t>@ifood propaganda de merda seus arrombados!!
+sabem que tem crianças vendo???</t>
+  </si>
+  <si>
+    <t>ifood me chamou p fazer parceria haushshsh</t>
+  </si>
+  <si>
+    <t>@ifood @speaknowz13 hoje https://t.co/vuyjrbuenx</t>
+  </si>
+  <si>
+    <t>@ifood meu deus</t>
+  </si>
+  <si>
+    <t>açai no ifood tá dando mais de 20 reais tá maluuuuco</t>
+  </si>
+  <si>
+    <t>@ifood aceita o meu cu
+rrículo</t>
+  </si>
+  <si>
+    <t>gente eu esquece que eu almocei e comprei pastel no ifood</t>
+  </si>
+  <si>
+    <t>@ifood @marijumandia @_pedrouw @jrcs_ntc @michaelbeirigo se vocês me trocarem eu eu fico puto</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood
+w75zj7cyem - 10 reais no seu primeiro pedido 
+rappi
+gkz310126052 -  30 reais + 150 em frete  
+picpay
+cjytau -  ganhe credito para fazer pagamentos, recargas e muito mais. 
+airbnb
+https://t.co/8cfg3kworq  -&amp;gt;  até 179 reais de desconto em hospedagem https://t.co/diclqgm9l6</t>
+  </si>
+  <si>
+    <t>@ifood inclusive, saudades de você me dar seu cu..... pom, dona @ifood</t>
+  </si>
+  <si>
+    <t>de novo @ifood? to passando mal sem meu loop, pra variar foi cobrado, consta numa tela entregue, na outra tela em andamento (zona) e não chegou nada</t>
+  </si>
+  <si>
+    <t>precisando fazer caracterização, cortar o cabelo, comprar um tennis novo, tudo isso em apenas 14 dias para virar a fatura do cartão e ainda economizar pro #rockinrio será possível? #hopeso aquela felicidade de quem n pediu ifood ontem sendo compensada na necessidade de hj #oremos</t>
+  </si>
+  <si>
+    <t>man eu fui pedir um açaí do ifood ai quando eu fui pagar o lugar simplesmente fechou  f e c h o u</t>
+  </si>
+  <si>
+    <t>rt @fabiusnv: @ifood escatologia e comida: bandejão da federal.</t>
+  </si>
+  <si>
+    <t>@mdnvsky @ifood se fosse rola, claramente eu kkk</t>
+  </si>
+  <si>
+    <t>alguém segura o ifood mano kkkkkkk https://t.co/iq0261fomr</t>
+  </si>
+  <si>
+    <t>ontem: preciso me alimentar melhor... 
+hj: vou ver no ifood o que tem de promoção pra pedir marmita... 
+30 min: mas ta caro dms essas marmita, olha que barato pedir um açaí, vai ser isso que almoço hj...</t>
+  </si>
+  <si>
+    <t>apple tv+ chega em 1/11 de graça pra quem comprar algo da apple! concorrência fraca pro amazon prime video? ah, tem novo ipad e watch! iphone 11 saiu!
+e tomem cupom:
+-ifood r$15:
+ltskr2vq1f ou vkx9l8dzbw
+#appleevent #appletvplus #streaming #apple #applewatchseries5 #iphonexi https://t.co/jvapva2rzg</t>
+  </si>
+  <si>
+    <t>@ifood mane primeira compra moço</t>
+  </si>
+  <si>
+    <t>to com ranço desse @ifood que agora só manda cupom com restaurantes participantes</t>
+  </si>
+  <si>
+    <t>@ifood @lkns_mic cu - pom pra fazer um lanche aí</t>
+  </si>
+  <si>
+    <t>@ifood oxenteeee kkkkkkkkk
+ah tá, cupom...</t>
+  </si>
+  <si>
+    <t>@ifood “primeira compra” https://t.co/p1a2yzxrxb</t>
+  </si>
+  <si>
+    <t>@ifood amiga vc não tem limites mesmo</t>
+  </si>
+  <si>
+    <t>@ifood cade o meu? cupom inclusive...</t>
+  </si>
+  <si>
+    <t>apple tv+ chega em 1/11 de graça pra quem comprar algo da apple! concorrência fraca pro amazon prime video? ah, tem novo ipad e watch! iphone 11 saiu!
+e tomem cupom:
+-ifood r$15:
+ltskr2vq1f ou vkx9l8dzbw
+#appleevent #appletvplus #streaming #apple #applewatchseries5 #iphone11 https://t.co/aizygwdjz6</t>
+  </si>
+  <si>
+    <t>@ifood você é zika kkkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@ifood foi o cu</t>
+  </si>
+  <si>
+    <t>@ifood tá cheio das graças hoje em kkkkk</t>
+  </si>
+  <si>
+    <t>@fabiusnv @ifood ficam evidentes as características do sujeito né.</t>
+  </si>
+  <si>
+    <t>spoletto começou a cobrar taxa de entrega no ifood 😔</t>
+  </si>
+  <si>
+    <t>meu deu o ifood kkkkkkk https://t.co/mfuch9zdi2</t>
+  </si>
+  <si>
+    <t>@ifood o susto que eu tomei</t>
+  </si>
+  <si>
+    <t>@ifood "a promoção não está disponível", só aparece isso https://t.co/n7xfepuchz</t>
+  </si>
+  <si>
+    <t>@exxtremizein @ifood faz um apelo, vai q eles te manda uns cupons kkk custa nadaa tentar</t>
+  </si>
+  <si>
+    <t>@ifood primeira compra
+olha sinceramente viu</t>
+  </si>
+  <si>
+    <t>ainda bem que eu não sou o social mídia do ifood, esse cara é lançada da cabeça https://t.co/x74xclaitq</t>
+  </si>
+  <si>
+    <t>cupons no @ifood https://t.co/5x6frc3zio</t>
+  </si>
+  <si>
+    <t>@ifood estagiário tá na puberdade.</t>
+  </si>
+  <si>
+    <t>@ifood mas em?</t>
+  </si>
+  <si>
+    <t>rt @sofskrr: sera se eu colocar no ifood "coisa mais gostosa" aparece vc pra entregar aqui em casa?</t>
+  </si>
+  <si>
+    <t>@ifood @maq_theus minha filha?</t>
+  </si>
+  <si>
+    <t>@ifood pom de 100% de desconto pra mim</t>
+  </si>
+  <si>
+    <t>@ifood trocou pelo emprego. que guerreiro hein estagiário parabéns!</t>
+  </si>
+  <si>
+    <t>adoeci e estou em casa.
+pedi uma comida no ifood e olha a gentileza: uma msg e um bombom.
+gostei. 😀 https://t.co/d0pbtw0tct</t>
+  </si>
+  <si>
+    <t>ifood é a melhor coisa do mundo meu deus</t>
+  </si>
+  <si>
+    <t>@ifood "primeira compra" vá se foder, a gente que gasta pra crl no app só ganha cupom de 10 conto pra usar em restaurante que tem taxa de 15 reais</t>
+  </si>
+  <si>
+    <t>@ifood tb curto estourar um cativeiro viu, ifood?</t>
+  </si>
+  <si>
+    <t>@gabifariaeu @suplineyall fico imaginando quanto o ifood paga pra saber os dias que eu quero comer doce salgado carboidrato fritura e inclusive gosto desse mkt assertivo que não me oferece pizza quando eu quero açaí</t>
+  </si>
+  <si>
+    <t>@ifood pq ñ cai entregas pra eu fazer?? 😭😭</t>
+  </si>
+  <si>
+    <t>se eu trabalha no ifood ai https://t.co/kzwgynpf0q</t>
+  </si>
+  <si>
+    <t>@ifood manda uns pra mim, nunca te pedi nada</t>
+  </si>
+  <si>
+    <t>os funcionários do ifood olha para o limite e pensa kkkkkkkkkkkkkkkkkkkkkkkkfodase https://t.co/hix9r8qegm</t>
+  </si>
+  <si>
+    <t>@ifood vc tem um total de 0 defeitos !!!!</t>
+  </si>
+  <si>
+    <t>@alyssonmansoo e tu comprando comida no ifood</t>
+  </si>
+  <si>
+    <t>cara eu quero trabalhar de estagiária do ifood https://t.co/dnmgnhrctc</t>
+  </si>
+  <si>
+    <t>troco gente tóxica por uma resposta descente do @ifood que fica fazendo graça, mas não dá suporte pra quem precisa.</t>
+  </si>
+  <si>
+    <t>juro, acabei de sentar com meu miojo no capricho sabor tomate suave e ganhei desconto no ifood. fiquei triste? não. vou pedir mais comida!</t>
+  </si>
+  <si>
+    <t>@ifood @eusoumitchell o estagiário ficou louco</t>
+  </si>
+  <si>
+    <t>eu tbm ifood, eu tbm https://t.co/jzjpfbftwt</t>
   </si>
   <si>
     <t>cupom de desconto: 
 ifood:
 w75zj7cyem - 10 reais no seu primeiro pedido 
 rappi
-gkz310126052 - 30 reais + 100 em frete!
+gkz310126052 - 30 reais + 150 em frete  
 james delivery
 gleizyt1276 - 20 reais no seu primeiro pedido
-airbnb:
-https://t.co/8vweyqfdmr -&amp;gt; até 179 reais de desconto em hospedagem https://t.co/xs5myjc1gp</t>
-  </si>
-  <si>
-    <t>cupom de desconto: 
-ifood:
-w75zj7cyem - 10 reais no seu primeiro pedido 
-rappi:
-gkz310126052 - 30 reais + 100 em frete
-james delivery
-gleizyt1276 - 20 reais no seu primeiro pedido
-airbnb:
-https://t.co/utivldvo4g -&amp;gt; até 179 reais de desconto em hospedagem! https://t.co/cchwbynp8w</t>
-  </si>
-  <si>
-    <t>rt @marianobno: "eu vou parar de comer fora"
-ifood: 
-quer um cupom de 10 continho mô?
-eu 2 min dps: https://t.co/0vlbpiuo3c</t>
-  </si>
-  <si>
-    <t>não tem mais mariana perdomo no ifood??</t>
-  </si>
-  <si>
-    <t>eu nunca vi um motoboy com mochila do ifood.</t>
-  </si>
-  <si>
-    <t>meu sonho hoje era o @ifood me mandar um cupom de desconto</t>
-  </si>
-  <si>
-    <t>eu sou influencer de dorflex, neosoro e ifood</t>
-  </si>
-  <si>
-    <t>alguma boa alma online pra me dar cupom de desconto do uber eats ou ifood???</t>
-  </si>
-  <si>
-    <t>@ulsac @mauragabs pediu um breja e uma piscina mil litros no ifood</t>
-  </si>
-  <si>
-    <t>oi @ifood percebi que faz tempo que não me dá um cupom 
-tem algo errado? te fiz alguma coisa?</t>
-  </si>
-  <si>
-    <t>demonstração máxima de amor: mandar um @ifood de presente.</t>
-  </si>
-  <si>
-    <t>@nemporumcaralho no carnaval eu só passei raiva pedindo lanche no ifood com essas maioneses podre, ódio</t>
-  </si>
-  <si>
-    <t>o erro eu começar a pedir ifood no dia q recebo</t>
-  </si>
-  <si>
-    <t>não aguento mais rappi e ifood flodando todos os anúncios sendo que nenhum faz entrega no meu endereço</t>
-  </si>
-  <si>
-    <t>almocei hoje por 1 real kkkk obrigado ifood</t>
-  </si>
-  <si>
-    <t>ifood nao ta aceitando o cupom gerado pelos meus amigos e nem o meu cupom pra eles usarem. @ifood ajuda aí</t>
-  </si>
-  <si>
-    <t>pq q ela leva o dinheiro?? poderia ta pedindo um lanche completo no ifood mas nao tem dinheiro</t>
-  </si>
-  <si>
-    <t>@cuponsdesite acabei de usar no ifood, obrigado por tudo https://t.co/huvfbm4jty</t>
-  </si>
-  <si>
-    <t>so queria um doceee,e oq q eu faço p melhorar?? fico procurando no ifood msm sabendo q eu n tenho money p comprar kkkkk</t>
-  </si>
-  <si>
-    <t>@gbbsanto @vi___s @yareds_ eu compro direto no ifood véi</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? larissa e nós do #ifood vamos te ajudar! insira o cupom wvn4wvu1jv e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/qpadgsoqoh</t>
-  </si>
-  <si>
-    <t>pedi um almoço no ifood por 17 reais e vem 2 panquecas de frango com catupiry enormeeee, pencas arroz e batata frita.. eu dou mt sorte com esse ifood kkkk</t>
-  </si>
-  <si>
-    <t>algum feministo online pra pagar o meu ifood.....</t>
-  </si>
-  <si>
-    <t>lala fez eu baixar ifood pra pedir um almoço pra ele tive que desinstalar o cartola</t>
-  </si>
-  <si>
-    <t>minha mãe viajou e eu pensei q ela tinha deixado pelo menos um arroz e feijão, mas não 🤦🏼‍♂️. alguém me manda um ifood aiii</t>
-  </si>
-  <si>
-    <t>bateu aquela fome? jardã  e nós do #ifood vamos te ajudar! insira o cupom ud83auldv1 e ganhe r$ 15 de desconto na sua primeira compra pelo app.
-https://t.co/jczce7eqjf</t>
+airbnb
+https://t.co/8cfg3kworq -&amp;gt; até 179 reais de desconto em hospedagem https://t.co/pa2w3kto06</t>
+  </si>
+  <si>
+    <t>@ifood @cairoevertx que isso ifode?</t>
+  </si>
+  <si>
+    <t>@ifood eita</t>
+  </si>
+  <si>
+    <t>@ifood sempre primeira compra, é mta sacanagem em</t>
+  </si>
+  <si>
+    <t>@ifood troco cuponzinho de 8 pra ter cuponzinho de 15 😏</t>
+  </si>
+  <si>
+    <t>krlh,o @ifood está com tudo 😂😂😂😂 https://t.co/bhkmpjynlb</t>
+  </si>
+  <si>
+    <t>@ifood @heyfucked @inthefirma kkkkkkkkk os comentários</t>
+  </si>
+  <si>
+    <t>@ifood então...</t>
+  </si>
+  <si>
+    <t>@ifood @rafa_brennsen0 fala que adora mas mandar que é bom nada né</t>
+  </si>
+  <si>
+    <t>@edu_hidan @preacherstulip @ifood e mais: os restaurantes selecionados sempre são aqueles com nota abaixo de 4</t>
+  </si>
+  <si>
+    <t>pedi meu almoço no ifood por 4,99 apenas, to feliz?</t>
+  </si>
+  <si>
+    <t>o estagiário do @ifood parece ser um moço da 5° série, ou tbm podia ser eu https://t.co/talejrjayx</t>
+  </si>
+  <si>
+    <t>@ifood gente me ajudem a subir o ifood entregou meu pedido faltando mais da metade eu eu fiquei no prejuízo, tentei ligar, reclame aqui e nem me responderam, pfv ajudem</t>
+  </si>
+  <si>
+    <t>@ifood estagiário retardado.</t>
+  </si>
+  <si>
+    <t>@ju_earthmariano @preacherstulip @ifood nota n é mt relevante, o foda é o cupom ser de 10 com minimo de 25 e a média da taxa dos restaures ser 15/20$</t>
+  </si>
+  <si>
+    <t>ontem simplesmente fui usar meu cupom de 30 reais no @ifood aí o restaurante demorou mais de 20 minutos e não aceitou o pedido,tive que cancelar,mas aí o ifood não devolveu meu cupom e não me responde no chat</t>
+  </si>
+  <si>
+    <t>@ifood vc nunca me enviou um bom cu... pom</t>
+  </si>
+  <si>
+    <t>@ifood toma esse cupom pra renovar meu amor por você. 
+ifoodteamo</t>
+  </si>
+  <si>
+    <t>qm deixo um gay adm a conta do ifood no tt https://t.co/drmwgnrznc</t>
+  </si>
+  <si>
+    <t>@luciusseneca3 @ifood poxa, que pena! vão falir</t>
+  </si>
+  <si>
+    <t>eu almocei a comida do ifood e agora estou comendo o papa mara a minha mãe fez 👌🏼</t>
+  </si>
+  <si>
+    <t>queria ser mais saudável e comer bem mas só penso em cupom do ifood e fotos de comidas do instagram</t>
+  </si>
+  <si>
+    <t>@ifood affff e o cupom pra valorizar a galera que já te ama, @ifood ?</t>
+  </si>
+  <si>
+    <t>alguém para o ifood https://t.co/9xqbb1nn2w</t>
+  </si>
+  <si>
+    <t>o que fazer na aula livre? pedir um ifood https://t.co/uvllh3lcyf</t>
+  </si>
+  <si>
+    <t>@ifood cadê o suporte de vocês que nenhum canal funciona?</t>
+  </si>
+  <si>
+    <t>@ifood que isso</t>
   </si>
   <si>
     <t>cupom de desconto: 
 ifood:
 w75zj7cyem - 10 reais no seu primeiro pedido 
 rappi
-gkz310126052 - 30 reais + 100 em frete!
+gkz310126052 - 30 reais + 150 em frete  
 james delivery
 gleizyt1276 - 20 reais no seu primeiro pedido
-airbnb:
-https://t.co/utivldvo4g -&amp;gt; até 179 reais de desconto em hospedagem https://t.co/vfm4fgmnxf</t>
-  </si>
-  <si>
-    <t>@vi___s @yareds_ ifood é só cartão, eu acho</t>
+airbnb
+https://t.co/qe2cgghrfr -&amp;gt; até 179 reais de desconto em hospedagem https://t.co/nz5jm9ckxb</t>
+  </si>
+  <si>
+    <t>que ridículo esse trocadilho do ifood, péssimo market pra uma companhia que entrega comida. eu #trocoifoodpelorappi https://t.co/p0ufdhvdwj</t>
+  </si>
+  <si>
+    <t>@ifood ai fiquei tão feliz a toa kkk sad</t>
+  </si>
+  <si>
+    <t>@ifood promovendo “comportamentos homossexuais” hein falando de cu! que baixariaaaaaaaaaaaaa! continue 😂😂😂</t>
+  </si>
+  <si>
+    <t>@luciusseneca3 @ifood de qualquer sorte, 99% do que estes aplicativos de delivery ofereem é carboidrato barato e insanidade.</t>
+  </si>
+  <si>
+    <t>@lcbaal @ubereats @ifood tem um outro app q se chama amo ofertas, comida baratinha de vários lugares</t>
+  </si>
+  <si>
+    <t>@getuliao_2 @ifood @predinhoiv olá, boa tarde @ifood eu queria trocar o getúlio por um cu
+pom</t>
+  </si>
+  <si>
+    <t>eu nunca recebi uma notificação do ifood terminada em cu https://t.co/dtjz2ohat5</t>
+  </si>
+  <si>
+    <t>preciso decidir algo, vou viajar esse final de semana e preciso decidir se vou usar @ubereats ou @ifood vo ficar o find todo e dependo de delivery de comida, oq vcs tem pra me oferecer?</t>
+  </si>
+  <si>
+    <t>@ifood para de fazer a egípcia e me responde</t>
+  </si>
+  <si>
+    <t>@ifood cadê o momento de mimos para clientes antigos????</t>
+  </si>
+  <si>
+    <t>@ifood merda é essa</t>
+  </si>
+  <si>
+    <t>@ifood estou muito triste hoje, vc poderia me dar um cupom de 50 reais para eu pedir um lance e alegrar meu dia?</t>
+  </si>
+  <si>
+    <t>apple tv+ chega em 1/11 de graça pra quem comprar algo da apple! concorrência fraca pro amazon prime video? ah, tem novo ipad
+e tomem cupom:
+-ifood r$15:
+ltskr2vq1f ou vkx9l8dzbw
+-rappi frete r$150: a3g38521498 
+-shellbox r$10: fp58141
+#appleevent #appletvplus #streaming #apple</t>
+  </si>
+  <si>
+    <t>queria ser a estagiária que controla as redes sociais do ifood https://t.co/zhzvllbddz</t>
+  </si>
+  <si>
+    <t>@ifood saudades daquilo que não vivemos!!!!</t>
+  </si>
+  <si>
+    <t>@ifood troco meu rango que não chegou faz 1 semana por cu</t>
+  </si>
+  <si>
+    <t>@raphaelmelos sim, o ifood é só com cartão</t>
+  </si>
+  <si>
+    <t>@ifood pelo amor de deus não me faz pegar bode desse app! 💆‍♀️</t>
+  </si>
+  <si>
+    <t>@ifood tóxico é vc querer assistir um vídeo e toda hora ser cortado com propaganda do ifood. na época do pt não tinha isso</t>
+  </si>
+  <si>
+    <t>@ifood seria bom se funcionasse ...#sqn</t>
+  </si>
+  <si>
+    <t>@ifood @cnt_pr @isaporcher olha os comentario</t>
+  </si>
+  <si>
+    <t>@ifood ola, voces me cobraram duas vezes o programa de frete gratuito (14,90). preciso do estorno e mesmo assim nao apareceu nada de frete gratis no meu app (gabriel.qm@hotmail.com)</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood:
+w75zj7cyem - 10 reais no seu primeiro pedido 
+rappi
+gkz310126052 - 30 reais + 150 em frete  
+james delivery
+gleizyt1276 - 20 reais no seu primeiro pedido
+airbnb
+https://t.co/opgwjmcr9l -&amp;gt; até 179 reais de desconto em hospedagem https://t.co/rymapmi1lb</t>
+  </si>
+  <si>
+    <t>esse é o fleetwood mac, ou apenas mac para os mais íntimos. ❤
+venha comer aqui no green ou peça o seu pelo whats no (15) 99713-8083 ou pelo ifood 👊🏻💥
+#burger #hambúrguer #green #bar #itapeva em itapeva, sao paulo https://t.co/rc4o8z2wdg</t>
+  </si>
+  <si>
+    <t>o ifood eh mt engraçado cara</t>
+  </si>
+  <si>
+    <t>@ifood @cross_gp não vai ter triângulo se for comigo... hein https://t.co/dsln8colcl</t>
+  </si>
+  <si>
+    <t>eu e clarice querendo fazer o pedido no ifood e luciana não saia do corredor ,parecia que estava sentindo que estávamos mexendo no cel</t>
+  </si>
+  <si>
+    <t>@ifood @tonxyan kkkkk o estagiário vai pedir um cu por ifood ?!  https://t.co/ctyvfvzput</t>
+  </si>
+  <si>
+    <t>@ifood danadinho!</t>
+  </si>
+  <si>
+    <t>@ifood insolentezinho de merda!</t>
+  </si>
+  <si>
+    <t>vsf ifood que não entrega na minha casa em certos lugares</t>
+  </si>
+  <si>
+    <t>rt @samirluizz: eu:
+@ifood: toma um cupom
+eu: preciso de um cupom
+@ifood:</t>
+  </si>
+  <si>
+    <t>rt @luide: amo meus colegas de trabalho:
+num dia tão fazendo lowcarb, no outro comprando um cento de coxinha no ifood
+equilíbrio é tudo</t>
+  </si>
+  <si>
+    <t>@ifood tuuudo pra mim. esse cu... pom apareceu na hora certa https://t.co/qedzad09id</t>
+  </si>
+  <si>
+    <t>quero um cupomzinho @ifood nunca te pedi nada</t>
+  </si>
+  <si>
+    <t>@ifood por favor não demitam o estagiário, eu amo ele</t>
+  </si>
+  <si>
+    <t>@ifood tá podre você 
+https://t.co/suyjmkkhfr</t>
+  </si>
+  <si>
+    <t>@guistabarbara @ifood @rappibrasil esses cupons são dados pelo restaurante e como inviabiliza o trabalho do restaurantes apenas aqueles que estão quebrando literalmente usam esse cupom como última alternativa !</t>
+  </si>
+  <si>
+    <t>que isso ifood tá doida https://t.co/jqealofm5t</t>
+  </si>
+  <si>
+    <t>mano o ifood, sla véi... https://t.co/tk0nntck31</t>
+  </si>
+  <si>
+    <t>@ifood me da um cupom</t>
+  </si>
+  <si>
+    <t>eu tb ifood, eu tb https://t.co/czfdlharfn</t>
+  </si>
+  <si>
+    <t>@ifood sabia que tinha errado. 😅😅</t>
+  </si>
+  <si>
+    <t>@ifood tem q dar esse cupom mais cedo @ifood eu almoço meio dia</t>
+  </si>
+  <si>
+    <t>rt @blowtex: @ifood tuuudo pra mim. esse cu... pom apareceu na hora certa https://t.co/qedzad09id</t>
+  </si>
+  <si>
+    <t>só queria um cupom no @ifood</t>
+  </si>
+  <si>
+    <t>@ifood que absurdo rs</t>
+  </si>
+  <si>
+    <t>será que o ifood entrega vc aqui na minha casa ? 
+#tercadetremurasdv</t>
+  </si>
+  <si>
+    <t>@ifood queria um cu</t>
+  </si>
+  <si>
+    <t>berrro ifood kkk
+alguém segura ele 😂 https://t.co/nxf0twnlsf</t>
+  </si>
+  <si>
+    <t>se o próprio ifood tá falando https://t.co/fymglplmey</t>
+  </si>
+  <si>
+    <t>@ifood ifood  não exclua os veteranos</t>
+  </si>
+  <si>
+    <t>@ifood é por isso que é melhor! https://t.co/x7n79ykl7z</t>
+  </si>
+  <si>
+    <t>@ifood meudeos q susto</t>
+  </si>
+  <si>
+    <t>@melivick1 @ifood aí tu leu oq sabe</t>
+  </si>
+  <si>
+    <t>nem cu nem pom, ifood amore porque me abandonastes? https://t.co/idzr7sp0y6</t>
+  </si>
+  <si>
+    <t>@mateus_leite1 amigo, eu tô pagando 2 reais no ifood com cupom, tá saindo mais barato que comprar comida no mercado/padaria kkkk</t>
+  </si>
+  <si>
+    <t>@oetrusco @ifood o social media dessa conta é um retardado</t>
+  </si>
+  <si>
+    <t>@ifood mas esse povo é assanhado</t>
+  </si>
+  <si>
+    <t>@ifood mas é daqueles cupons que quando usamos não passa o cartão, daí temos que pagar direto pro entregador sem poder usar o cupom?</t>
+  </si>
+  <si>
+    <t>@preacherstulip @ifood "toma cupom pra tu comprar oq quiser" "somente nos restaurantes selecionados" xd</t>
+  </si>
+  <si>
+    <t>@silvedic @ifood com areia ainda</t>
+  </si>
+  <si>
+    <t>@lets_dex questionário ifood para os motocas, um mano acabou de me enviar pra mim, tem outras perguntas ridículas, quem duvidar pergunte a um deles, eu vi ao vivo kkkkkk https://t.co/qtznaeuzxh</t>
+  </si>
+  <si>
+    <t>@ifood e os clientes neca de pitibiriba</t>
+  </si>
+  <si>
+    <t>@ifood falando em cupom cade o meu q n veio?</t>
+  </si>
+  <si>
+    <t>@ifood estagiário ganhou uma aposta, com certeza.</t>
+  </si>
+  <si>
+    <t>minha amiga ta trabalhando la em casa me senti obrigada a pedir um ifood p ela coitada vale alimentaçao eh direito do trabalhado r</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood:
+w75zj7cyem - 10 reais no seu primeiro pedido 
+rappi
+gkz310126052 - 30 reais + 150 em frete  
+james delivery
+gleizyt1276 - 20 reais no seu primeiro pedido
+airbnb
+https://t.co/8cfg3kworq -&amp;gt; até 179 reais de desconto em hospedagem https://t.co/cjt4ooxrqa</t>
+  </si>
+  <si>
+    <t>@ifood pior q eu baum memo</t>
+  </si>
+  <si>
+    <t>sopa não é janta mãe' hahaha foda-se luizinho, você tem 8 anos e não inventaram o ifood ainda. come essa porra! https://t.co/h3mkpibguk</t>
+  </si>
+  <si>
+    <t>@ifood me iludindo com cupom eu ja sedenta por um açaí.... só pra primeiras compras 🙄</t>
+  </si>
+  <si>
+    <t>@ifood @copoplastico cuscuz
+eita, enganei vc
+vc pensou que fosse otra pexoaa</t>
+  </si>
+  <si>
+    <t>@lorenacrvg @ifood eu também @ifood</t>
+  </si>
+  <si>
+    <t>@ifood me dá um. cupom 😭😭😭</t>
+  </si>
+  <si>
+    <t>rt @joan_edgley: o estagiário do @ifood parece ser um moço da 5° série, ou tbm podia ser eu https://t.co/talejrjayx</t>
+  </si>
+  <si>
+    <t>@ifood adorei</t>
+  </si>
+  <si>
+    <t>@ifood sdds cupom para quem já é usuário</t>
+  </si>
+  <si>
+    <t>tô a duas horas pensando se eu devo buscar o açaí ou pedir pelo ifood e tô ficando nervosa já</t>
+  </si>
+  <si>
+    <t>cupom de desconto: 
+ifood:
+w75zj7cyem - 10 reais no seu primeiro pedido 
+rappi
+gkz310126052 - 30 reais + 150 em frete  
+james delivery
+gleizyt1276 - 20 reais no seu primeiro pedido
+airbnb
+https://t.co/opgwjmcr9l -&amp;gt; até 179 reais de desconto em hospedagem https://t.co/4vww7jiaee</t>
+  </si>
+  <si>
+    <t>@ifood engraçado que só libera pra quem vai comprar pela primeira vez né. os clientes antigos fica só na vontade kkk tem que rever isso aí</t>
+  </si>
+  <si>
+    <t>@beezylizard provei só uma vez! era um creamer, mas gostei kkk aí eles começaram a cobrar a entrega no ifood e não pedi mais</t>
+  </si>
+  <si>
+    <t>rt @red_dino_puppet: fui somar todos os meus pedidos do ifood em torno de 1 ano e deu 
+3.362,40 reais
+três mil e trezentos reais 
+isso mu…</t>
+  </si>
+  <si>
+    <t>@ifood manda cupommm voces me esqueceram affff</t>
+  </si>
+  <si>
+    <t>@ifood reveja seus conceitos @ifood</t>
+  </si>
+  <si>
+    <t>@ifood não tá funcionando</t>
+  </si>
+  <si>
+    <t>netflix e ifood 02 forçados do karwlho https://t.co/mjly14ppd4</t>
+  </si>
+  <si>
+    <t>oi @ifood tem piedade de mim e me dá um cupom pra eu pedir um açaí</t>
+  </si>
+  <si>
+    <t>@wpdarosa @ubereats @ifood genteh, roça real</t>
+  </si>
+  <si>
+    <t>nossa q entregador gato em, ifood</t>
+  </si>
+  <si>
+    <t>@ifood pelo amor de cristo me responde! pqp</t>
+  </si>
+  <si>
+    <t>@ifood gente que isso</t>
+  </si>
+  <si>
+    <t>@maktubiar ifood tá demaissss kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>ngm me manda um ifood gnt tóxica</t>
+  </si>
+  <si>
+    <t>@ifood podia trocar po um market bom.</t>
+  </si>
+  <si>
+    <t>gente o ifood anda descontrolado 😅 https://t.co/k1rtkzfidv</t>
+  </si>
+  <si>
+    <t>@sertanejeirobr @ifood fala direto com o restaurante pq eles demoram mesmo pra responder</t>
+  </si>
+  <si>
+    <t>rt @anajuliapitos: rappi : qip34757000 - 150$ em frete grátis 
+ifood : sx2uc3g1q9 - 15$ de desconto 
+uber eats : eats-djd1em - 6$ de descon…</t>
+  </si>
+  <si>
+    <t>@ifood eu tô aqui doido para comer e o @ifood não quer me dar o cu......</t>
+  </si>
+  <si>
+    <t>@ifood que bosta...</t>
+  </si>
+  <si>
+    <t>ontem terminei mais uma faixa!! apaguei no estúdio e agr vou caneta outra, porra cadê esse ifood cedo</t>
+  </si>
+  <si>
+    <t>@ifood o estagiário tá esquecendo que a conta n é dele</t>
+  </si>
+  <si>
+    <t>@efizer0 @ifood cadê as gente tóxica ??</t>
+  </si>
+  <si>
+    <t>@letras @ifood ai letras da o cu pom pra ele</t>
+  </si>
+  <si>
+    <t>quem é a pessoa por trás da conta do ifood? https://t.co/g9tf3mqfof</t>
+  </si>
+  <si>
+    <t>@ifood pqp! lacradores afundando o marketing.</t>
+  </si>
+  <si>
+    <t>@sinistrodibres @ifood empresa que esquece que é empresa</t>
+  </si>
+  <si>
+    <t>@ifood cumidinha entrege pelo ifood</t>
+  </si>
+  <si>
+    <t>@ifood cupom pra comprar pela primeira vez tem pra caceteais pra quem compra sempre é só aquele de dez pra compra de 25 kkkk</t>
   </si>
 </sst>
 </file>
@@ -619,645 +1478,1598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A127"/>
+  <dimension ref="A1:B317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>32</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
